--- a/IE400/data.xlsx
+++ b/IE400/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="21075" windowHeight="3645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="21075" windowHeight="3645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Storms_Radius">Storms!$C$3:$C$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T10"/>
+  <oleSize ref="A1:U10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C22"/>
     </sheetView>
   </sheetViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C871"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IE400/data.xlsx
+++ b/IE400/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="21075" windowHeight="3645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="21645" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Storms_Radius">Storms!$C$3:$C$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U10"/>
+  <oleSize ref="A1:V20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C22"/>
     </sheetView>
   </sheetViews>
@@ -1103,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
